--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,90 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E8" s="3">
         <v>12700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H8" s="3">
         <v>11400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>10300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="3">
         <v>8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,37 +1041,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,66 +1135,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>900</v>
+      </c>
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H32" s="3">
         <v>5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,26 +1618,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E41" s="3">
         <v>52900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3">
         <v>26700</v>
       </c>
-      <c r="G41" s="3">
-        <v>50200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,26 +1648,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E42" s="3">
         <v>29500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>23600</v>
       </c>
-      <c r="G42" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1680,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1744,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1677,8 +1776,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,26 +1840,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="E48" s="3">
         <v>16100</v>
       </c>
       <c r="F48" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3">
         <v>16000</v>
       </c>
-      <c r="G48" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1773,17 +1884,17 @@
         <v>12300</v>
       </c>
       <c r="E49" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>12600</v>
       </c>
-      <c r="G49" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,26 +2032,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1126900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1022400</v>
       </c>
-      <c r="E54" s="3">
-        <v>1006900</v>
-      </c>
       <c r="F54" s="3">
+        <v>1008100</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3">
         <v>926400</v>
       </c>
-      <c r="G54" s="3">
-        <v>763100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1973,16 +2104,16 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <v>500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1993,20 +2124,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>10300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,26 +2156,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
-        <v>3000</v>
-      </c>
       <c r="F59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,8 +2188,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,17 +2232,17 @@
         <v>14100</v>
       </c>
       <c r="E61" s="3">
-        <v>4200</v>
+        <v>14100</v>
       </c>
       <c r="F61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>14800</v>
       </c>
-      <c r="G61" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2109,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,26 +2380,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1007600</v>
+      </c>
+      <c r="E66" s="3">
         <v>908100</v>
       </c>
-      <c r="E66" s="3">
-        <v>895500</v>
-      </c>
       <c r="F66" s="3">
+        <v>896600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3">
         <v>824000</v>
       </c>
-      <c r="G66" s="3">
-        <v>677100</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,26 +2554,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E72" s="3">
         <v>72100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>62400</v>
       </c>
-      <c r="G72" s="3">
-        <v>60500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,26 +2682,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E76" s="3">
         <v>114300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
         <v>102400</v>
       </c>
-      <c r="G76" s="3">
-        <v>86000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,8 +3021,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,8 +3337,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,8 +3401,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3179,6 +3431,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,103 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F8" s="3">
         <v>13800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12700</v>
       </c>
-      <c r="F8" s="3">
-        <v>47700</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I8" s="3">
         <v>12800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>11400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +792,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +830,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +850,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +884,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +922,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +960,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +998,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1015,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F18" s="3">
         <v>10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10300</v>
       </c>
-      <c r="F18" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,40 +1107,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-21600</v>
       </c>
       <c r="G20" s="3">
         <v>-5100</v>
       </c>
       <c r="H20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,8 +1179,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,72 +1217,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5100</v>
       </c>
-      <c r="F23" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I23" s="3">
         <v>4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>3400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>13600</v>
       </c>
       <c r="G26" s="3">
         <v>4000</v>
       </c>
       <c r="H26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>3400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>13600</v>
       </c>
       <c r="G27" s="3">
         <v>4000</v>
       </c>
       <c r="H27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1559,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F32" s="3">
         <v>5600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>21600</v>
       </c>
       <c r="G32" s="3">
         <v>5100</v>
       </c>
       <c r="H32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J32" s="3">
         <v>5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>3400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>13600</v>
       </c>
       <c r="G33" s="3">
         <v>4000</v>
       </c>
       <c r="H33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>3400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>13600</v>
       </c>
       <c r="G35" s="3">
         <v>4000</v>
       </c>
       <c r="H35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,72 +1790,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F41" s="3">
         <v>56700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>52900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>77700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
         <v>26700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>52900</v>
+      </c>
+      <c r="F42" s="3">
         <v>31100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>29500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>18500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>23600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1900,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1938,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,8 +1976,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1811,31 +2014,37 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1843,8 +2052,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1852,63 +2067,75 @@
         <v>16000</v>
       </c>
       <c r="E48" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G48" s="3">
         <v>16100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>31800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3">
         <v>16000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F49" s="3">
         <v>12300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
         <v>12600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,26 +2204,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>2300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2242,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2280,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1249800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1167700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1126900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1022400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1008100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3">
         <v>926400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,22 +2354,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -2118,8 +2379,8 @@
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2388,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2138,15 +2405,15 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>10300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,40 +2426,52 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2223,40 +2502,52 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F61" s="3">
         <v>14100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>14100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>15000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>14800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2578,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2692,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1120400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1043500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1007600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>908100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>896600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3">
         <v>824000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2898,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F72" s="3">
         <v>74700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>72100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>69500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>62400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3050,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>124200</v>
+      </c>
+      <c r="F76" s="3">
         <v>119300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>114300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>111400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3">
         <v>102400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>3400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>13600</v>
       </c>
       <c r="G81" s="3">
         <v>4000</v>
       </c>
       <c r="H81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3227,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3261,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,8 +3451,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3056,8 +3489,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3509,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3543,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3619,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3198,8 +3657,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3825,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3372,8 +3863,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,8 +3901,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3434,6 +3937,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E8" s="3">
         <v>15600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E18" s="3">
         <v>13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,46 +1142,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,84 +1263,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,35 +1878,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E41" s="3">
         <v>56300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>26700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,35 +1917,38 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E42" s="3">
         <v>102700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>52900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18500</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>23600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2040,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1982,8 +2081,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2020,17 +2122,20 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2151,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2058,35 +2163,38 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E48" s="3">
         <v>16000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
         <v>16000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,35 +2204,38 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>12300</v>
       </c>
       <c r="G49" s="3">
         <v>12300</v>
       </c>
       <c r="H49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I49" s="3">
         <v>15500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>12600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,35 +2409,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1339700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1249800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1167700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1126900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1022400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1008100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>926400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,35 +2486,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2411,12 +2545,12 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>10300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,35 +2566,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2607,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2508,35 +2648,38 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E61" s="3">
         <v>18700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>14100</v>
       </c>
       <c r="G61" s="3">
         <v>14100</v>
       </c>
       <c r="H61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I61" s="3">
         <v>15000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>14800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,35 +2853,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1208500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1120400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1043500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1007600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>908100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>896600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>824000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,35 +3075,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E72" s="3">
         <v>83300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>78500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>74700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>69500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>62400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,35 +3239,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E76" s="3">
         <v>129400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>124200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>119300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>111400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>102400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,8 +3671,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,8 +4074,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,8 +4156,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,124 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F8" s="3">
         <v>14500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>13800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9900</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1096,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1154,46 @@
         <v>12900</v>
       </c>
       <c r="E18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G18" s="3">
         <v>13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>11000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,49 +1209,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-6500</v>
       </c>
       <c r="J20" s="3">
         <v>-5100</v>
       </c>
       <c r="K20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1225,8 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,90 +1346,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="3">
         <v>6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E26" s="3">
         <v>5500</v>
       </c>
       <c r="F26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3100</v>
       </c>
       <c r="J26" s="3">
         <v>4000</v>
       </c>
       <c r="K26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E27" s="3">
         <v>5500</v>
       </c>
       <c r="F27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3100</v>
       </c>
       <c r="J27" s="3">
         <v>4000</v>
       </c>
       <c r="K27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F32" s="3">
         <v>6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>6500</v>
       </c>
       <c r="J32" s="3">
         <v>5100</v>
       </c>
       <c r="K32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M32" s="3">
         <v>5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E33" s="3">
         <v>5500</v>
       </c>
       <c r="F33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3100</v>
       </c>
       <c r="J33" s="3">
         <v>4000</v>
       </c>
       <c r="K33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E35" s="3">
         <v>5500</v>
       </c>
       <c r="F35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3100</v>
       </c>
       <c r="J35" s="3">
         <v>4000</v>
       </c>
       <c r="K35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,90 +2051,104 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F41" s="3">
         <v>71200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>56300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>54600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>56700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>52900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>77700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>26700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>88800</v>
+      </c>
+      <c r="F42" s="3">
         <v>117200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>102700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>52900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>31100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>29500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
         <v>23600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2235,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2084,8 +2282,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2125,23 +2329,29 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2154,11 +2364,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2166,90 +2376,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F48" s="3">
         <v>15800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>15900</v>
       </c>
       <c r="G48" s="3">
         <v>16000</v>
       </c>
       <c r="H48" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J48" s="3">
         <v>16100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>31800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
         <v>16000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
         <v>12600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2564,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1365900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1333700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1339700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1249800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1167700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1126900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1022400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1008100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>926400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,31 +2747,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -2519,8 +2781,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>500</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2790,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2548,15 +2816,15 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>10300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,49 +2837,61 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2651,8 +2931,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2660,40 +2946,46 @@
         <v>28700</v>
       </c>
       <c r="E61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G61" s="3">
         <v>18700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>29100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>14100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>14800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +3025,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1196000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1208500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1120400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1043500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1007600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>908100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>896600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>824000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>92400</v>
+      </c>
+      <c r="F72" s="3">
         <v>87700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>83300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>78500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>74700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>72100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>69500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>62400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>137600</v>
+      </c>
+      <c r="F76" s="3">
         <v>131200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>129400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>124200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>119300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>114300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>111400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>102400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E81" s="3">
         <v>5500</v>
       </c>
       <c r="F81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3100</v>
       </c>
       <c r="J81" s="3">
         <v>4000</v>
       </c>
       <c r="K81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,8 +4102,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3715,8 +4149,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3773,8 +4215,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3896,8 +4356,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4118,8 +4610,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,8 +4657,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4198,6 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,130 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E8" s="3">
         <v>14300</v>
       </c>
       <c r="F8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G8" s="3">
         <v>14500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>12900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1243,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1391,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E32" s="3">
         <v>6600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,44 +2138,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E41" s="3">
         <v>98500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
         <v>26700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,44 +2186,47 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E42" s="3">
         <v>68900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>88800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>117200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>102700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>52900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
         <v>23600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,8 +2236,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2336,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2386,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,13 +2436,16 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>3500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2349,12 +2453,12 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2474,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2382,44 +2486,47 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E48" s="3">
         <v>15500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
         <v>16000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,44 +2536,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
         <v>11800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>12300</v>
       </c>
       <c r="J49" s="3">
         <v>12300</v>
       </c>
       <c r="K49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L49" s="3">
         <v>15500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
         <v>12600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,13 +2686,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>3100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -2584,24 +2703,24 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,44 +2786,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1409500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1365900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1333700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1339700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1249800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1167700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1126900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1022400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1008100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>926400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2878,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,35 +2888,35 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,38 +2926,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>10300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,44 +2976,47 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,8 +3026,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,13 +3076,16 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28700</v>
+        <v>18800</v>
       </c>
       <c r="E61" s="3">
         <v>28700</v>
@@ -2952,29 +3094,29 @@
         <v>28700</v>
       </c>
       <c r="G61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H61" s="3">
         <v>18700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>14100</v>
       </c>
       <c r="J61" s="3">
         <v>14100</v>
       </c>
       <c r="K61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L61" s="3">
         <v>15000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>14800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3126,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,44 +3326,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1261300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1223100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1196000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1208500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1120400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1043500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1007600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>908100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>896600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>824000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,44 +3596,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E72" s="3">
         <v>97700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>92400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>87700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>83300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>78500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>74700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>69500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>62400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,44 +3796,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148300</v>
+      </c>
+      <c r="E76" s="3">
         <v>142800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>137600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>131200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>129400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>119300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>114300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>111400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
         <v>102400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4321,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4371,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4393,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4541,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4811,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4861,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4911,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4959,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E8" s="3">
         <v>15000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>14300</v>
       </c>
       <c r="F8" s="3">
         <v>14300</v>
       </c>
       <c r="G8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H8" s="3">
         <v>14500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,8 +1150,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1133,99 +1160,105 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E18" s="3">
         <v>13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,58 +1277,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,108 +1434,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>7100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,47 +2225,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E41" s="3">
         <v>162000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>26700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,47 +2276,50 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E42" s="3">
         <v>21500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>68900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>88800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>117200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>52900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
         <v>23600</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,8 +2488,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,29 +2541,32 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2582,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2489,47 +2594,50 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
         <v>16000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,47 +2647,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>12300</v>
       </c>
       <c r="K49" s="3">
         <v>12300</v>
       </c>
       <c r="L49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="M49" s="3">
         <v>15500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
         <v>12600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,47 +2912,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1438700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1409500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1365900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1333700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1339700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1249800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1167700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1126900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1022400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1008100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>926400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,47 +3009,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2955,15 +3089,15 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>10300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,47 +3113,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>4700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3166,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,16 +3219,19 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E61" s="3">
         <v>18800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>28700</v>
       </c>
       <c r="F61" s="3">
         <v>28700</v>
@@ -3097,29 +3240,29 @@
         <v>28700</v>
       </c>
       <c r="H61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="I61" s="3">
         <v>18700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>14100</v>
       </c>
       <c r="K61" s="3">
         <v>14100</v>
       </c>
       <c r="L61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="M61" s="3">
         <v>15000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>14800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,47 +3484,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1285400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1261300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1223100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1196000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1208500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1120400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1043500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1007600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>908100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>896600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>824000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,47 +3770,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E72" s="3">
         <v>104000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>97700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>92400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>87700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>83300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>74700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>72100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>69500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>62400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,47 +3982,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E76" s="3">
         <v>148300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>137600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>131200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>129400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>124200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>119300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>114300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>111400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>102400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,8 +4538,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,8 +5057,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,8 +5163,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,144 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E8" s="3">
         <v>14400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>14300</v>
       </c>
       <c r="G8" s="3">
         <v>14300</v>
       </c>
       <c r="H8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I8" s="3">
         <v>14500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,61 +1311,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,50 +2312,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E41" s="3">
         <v>143400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>162000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>71200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>26700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,50 +2366,53 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>117200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>52900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
         <v>23600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2422,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,8 +2534,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2491,8 +2590,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2544,32 +2646,35 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2690,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2597,50 +2702,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E48" s="3">
         <v>16000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
         <v>16000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2659,41 +2770,41 @@
         <v>11600</v>
       </c>
       <c r="E49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F49" s="3">
         <v>11700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12300</v>
       </c>
       <c r="L49" s="3">
         <v>12300</v>
       </c>
       <c r="M49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="N49" s="3">
         <v>15500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
         <v>12600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,44 +2926,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,50 +3038,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1431300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1438700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1409500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1365900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1333700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1339700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1249800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1167700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1126900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1022400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1008100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>926400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,50 +3140,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3092,15 +3226,15 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>10300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,50 +3250,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>4700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,8 +3306,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3231,10 +3374,10 @@
         <v>28800</v>
       </c>
       <c r="E61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F61" s="3">
         <v>18800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>28700</v>
       </c>
       <c r="G61" s="3">
         <v>28700</v>
@@ -3243,29 +3386,29 @@
         <v>28700</v>
       </c>
       <c r="I61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="J61" s="3">
         <v>18700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>14100</v>
       </c>
       <c r="L61" s="3">
         <v>14100</v>
       </c>
       <c r="M61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="N61" s="3">
         <v>15000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>14800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3275,8 +3418,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,50 +3642,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1272300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1285400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1261300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1223100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1196000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1208500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1120400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1043500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1007600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>908100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>896600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>824000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,50 +3944,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E72" s="3">
         <v>108700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>104000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>97700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>92400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>87700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>83300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>69500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>62400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,50 +4168,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E76" s="3">
         <v>153300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>148300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>142800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>137600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>129400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>124200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>119300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>114300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>111400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>102400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,8 +4755,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,8 +5303,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,8 +5415,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,151 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E8" s="3">
         <v>14900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>14300</v>
       </c>
       <c r="H8" s="3">
         <v>14300</v>
       </c>
       <c r="I8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J8" s="3">
         <v>14500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9900</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>1200</v>
       </c>
       <c r="G17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>6400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E41" s="3">
         <v>74300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143400</v>
       </c>
-      <c r="F41" s="3">
-        <v>162000</v>
-      </c>
       <c r="G41" s="3">
+        <v>162600</v>
+      </c>
+      <c r="H41" s="3">
         <v>98500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>77700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3">
         <v>26700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,53 +2456,56 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E42" s="3">
         <v>20000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>117200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>102700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>52900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3">
         <v>23600</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2660,24 +2765,24 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2798,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2705,53 +2810,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E48" s="3">
         <v>15800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16000</v>
       </c>
-      <c r="F48" s="3">
-        <v>16200</v>
-      </c>
       <c r="G48" s="3">
+        <v>32400</v>
+      </c>
+      <c r="H48" s="3">
         <v>15500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
         <v>16000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,53 +2869,56 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="E49" s="3">
         <v>11600</v>
       </c>
       <c r="F49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="G49" s="3">
+        <v>14100</v>
+      </c>
+      <c r="H49" s="3">
         <v>11800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12300</v>
       </c>
       <c r="M49" s="3">
         <v>12300</v>
       </c>
       <c r="N49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="O49" s="3">
         <v>15500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
         <v>12600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2940,36 +3060,36 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1434900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1431300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1438700</v>
       </c>
-      <c r="F54" s="3">
-        <v>1409500</v>
-      </c>
       <c r="G54" s="3">
+        <v>1411100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1365900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1333700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1339700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1249800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1167700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1126900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1022400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1008100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
         <v>926400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3229,15 +3363,15 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>10300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
-        <v>8200</v>
-      </c>
       <c r="G59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>4700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,8 +3446,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3377,10 +3520,10 @@
         <v>28800</v>
       </c>
       <c r="F61" s="3">
-        <v>18800</v>
+        <v>28800</v>
       </c>
       <c r="G61" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="H61" s="3">
         <v>28700</v>
@@ -3389,29 +3532,29 @@
         <v>28700</v>
       </c>
       <c r="J61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K61" s="3">
         <v>18700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>14100</v>
       </c>
       <c r="M61" s="3">
         <v>14100</v>
       </c>
       <c r="N61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="O61" s="3">
         <v>15000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>14800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1275200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1272300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1285400</v>
       </c>
-      <c r="F66" s="3">
-        <v>1261300</v>
-      </c>
       <c r="G66" s="3">
+        <v>1262800</v>
+      </c>
+      <c r="H66" s="3">
         <v>1223100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1196000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1208500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1120400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1043500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1007600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>908100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>896600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3">
         <v>824000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E72" s="3">
         <v>114100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>108700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>104000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>97700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>92400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>87700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>83300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>69500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
         <v>62400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E76" s="3">
         <v>159000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>148300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>142800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>137600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>119300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>114300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3">
         <v>102400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E8" s="3">
         <v>15700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>14300</v>
       </c>
       <c r="I8" s="3">
         <v>14300</v>
       </c>
       <c r="J8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K8" s="3">
         <v>14500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9900</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
       </c>
       <c r="H17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E18" s="3">
         <v>10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1378,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1562,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2485,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E41" s="3">
         <v>61000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>143400</v>
       </c>
-      <c r="G41" s="3">
-        <v>162600</v>
-      </c>
       <c r="H41" s="3">
+        <v>162000</v>
+      </c>
+      <c r="I41" s="3">
         <v>98500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3">
         <v>26700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,56 +2545,59 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E42" s="3">
         <v>25700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>117200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>52900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3">
         <v>23600</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2607,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2731,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2793,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,13 +2855,16 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>3500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2768,24 +2872,24 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2801,8 +2905,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2813,56 +2917,59 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E48" s="3">
         <v>15600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="G48" s="3">
-        <v>32400</v>
-      </c>
       <c r="H48" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I48" s="3">
         <v>15500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3">
         <v>16000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,56 +2979,59 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>11600</v>
       </c>
       <c r="F49" s="3">
         <v>11600</v>
       </c>
       <c r="G49" s="3">
-        <v>14100</v>
+        <v>11600</v>
       </c>
       <c r="H49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I49" s="3">
         <v>11800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>12300</v>
       </c>
       <c r="N49" s="3">
         <v>12300</v>
       </c>
       <c r="O49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="P49" s="3">
         <v>15500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3">
         <v>12600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,13 +3165,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>3400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -3063,36 +3182,36 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3289,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1425800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1434900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1431300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1438700</v>
       </c>
-      <c r="G54" s="3">
-        <v>1411100</v>
-      </c>
       <c r="H54" s="3">
+        <v>1409500</v>
+      </c>
+      <c r="I54" s="3">
         <v>1365900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1333700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1339700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1249800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1167700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1126900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1022400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1008100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3">
         <v>926400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3401,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3366,15 +3499,15 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>10300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,56 +3523,59 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
-        <v>9800</v>
-      </c>
       <c r="H59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I59" s="3">
         <v>7600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3">
         <v>4700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,8 +3585,11 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,13 +3647,16 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28800</v>
+        <v>38800</v>
       </c>
       <c r="E61" s="3">
         <v>28800</v>
@@ -3526,7 +3668,7 @@
         <v>28800</v>
       </c>
       <c r="H61" s="3">
-        <v>28700</v>
+        <v>18800</v>
       </c>
       <c r="I61" s="3">
         <v>28700</v>
@@ -3535,29 +3677,29 @@
         <v>28700</v>
       </c>
       <c r="K61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="L61" s="3">
         <v>18700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>14100</v>
       </c>
       <c r="N61" s="3">
         <v>14100</v>
       </c>
       <c r="O61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="P61" s="3">
         <v>15000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>14800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3709,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3957,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1260900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1275200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1272300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1285400</v>
       </c>
-      <c r="G66" s="3">
-        <v>1262800</v>
-      </c>
       <c r="H66" s="3">
+        <v>1261300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1223100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1196000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1208500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1120400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1043500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1007600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>908100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>896600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3">
         <v>824000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4291,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E72" s="3">
         <v>115300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>114100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>108700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>104000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>97700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>92400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>87700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>83300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>69500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
         <v>62400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4539,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E76" s="3">
         <v>159700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>159000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>148300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>142800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>137600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>129400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>119300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>114300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3">
         <v>102400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5188,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5250,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5460,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5522,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5794,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5856,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5918,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5978,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,171 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F8" s="3">
         <v>16500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>14400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>15000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>15600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>12900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>12700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>13600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>12800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9900</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,8 +890,14 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +958,14 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +988,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1052,14 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1120,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1188,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1256,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1283,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F18" s="3">
         <v>13100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>12500</v>
       </c>
       <c r="K18" s="3">
         <v>12900</v>
       </c>
       <c r="L18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="N18" s="3">
         <v>13600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>11000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>7600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1445,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1388,61 +1456,67 @@
         <v>-7000</v>
       </c>
       <c r="E20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-6500</v>
       </c>
       <c r="Q20" s="3">
         <v>-5100</v>
       </c>
       <c r="R20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1503,8 +1577,14 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,8 +1645,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1574,123 +1660,135 @@
         <v>6100</v>
       </c>
       <c r="E23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-1300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1849,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>7100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5200</v>
       </c>
       <c r="L26" s="3">
         <v>5500</v>
       </c>
       <c r="M26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3100</v>
       </c>
       <c r="Q26" s="3">
         <v>4000</v>
       </c>
       <c r="R26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5200</v>
       </c>
       <c r="L27" s="3">
         <v>5500</v>
       </c>
       <c r="M27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3100</v>
       </c>
       <c r="Q27" s="3">
         <v>4000</v>
       </c>
       <c r="R27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2053,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2121,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2189,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2257,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2132,123 +2272,135 @@
         <v>7000</v>
       </c>
       <c r="E32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G32" s="3">
         <v>7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>6500</v>
       </c>
       <c r="Q32" s="3">
         <v>5100</v>
       </c>
       <c r="R32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="S32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T32" s="3">
         <v>5800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5200</v>
       </c>
       <c r="L33" s="3">
         <v>5500</v>
       </c>
       <c r="M33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O33" s="3">
         <v>4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>3100</v>
       </c>
       <c r="Q33" s="3">
         <v>4000</v>
       </c>
       <c r="R33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2461,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5200</v>
       </c>
       <c r="L35" s="3">
         <v>5500</v>
       </c>
       <c r="M35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O35" s="3">
         <v>4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3100</v>
       </c>
       <c r="Q35" s="3">
         <v>4000</v>
       </c>
       <c r="R35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2632,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,132 +2658,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F41" s="3">
         <v>39300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>61000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>74300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>143400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>162000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>98500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>66100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>71200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>56300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>54600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>56700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>52900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>77700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3">
         <v>26700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F42" s="3">
         <v>37900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>25700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>20000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>16600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>21500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>68900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>88800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>117200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>102700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>52900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>31100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>29500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>18500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3">
         <v>23600</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2672,8 +2858,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,8 +2926,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2796,8 +2994,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,44 +3062,50 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,11 +3118,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2920,132 +3130,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F48" s="3">
         <v>15400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>15800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>16000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>16200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>15500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>15700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>15800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>16000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>15900</v>
       </c>
       <c r="N48" s="3">
         <v>16000</v>
       </c>
       <c r="O48" s="3">
+        <v>15900</v>
+      </c>
+      <c r="P48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>16100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>31800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3">
         <v>16000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>15500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3">
         <v>12600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3334,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,56 +3402,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3470,14 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3538,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1404900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1425800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1434900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1431300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1438700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1409500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1365900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1333700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1339700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1249800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1167700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1126900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1022400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1008100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3">
         <v>926400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3636,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,16 +3662,18 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3423,31 +3685,31 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3455,8 +3717,8 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>500</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3464,8 +3726,14 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3502,18 +3770,18 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>10300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,70 +3794,82 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3">
         <v>4700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3650,70 +3930,82 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F61" s="3">
         <v>38800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>28800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>28800</v>
       </c>
       <c r="G61" s="3">
         <v>28800</v>
       </c>
       <c r="H61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J61" s="3">
         <v>18800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>28700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>28700</v>
       </c>
       <c r="K61" s="3">
         <v>28700</v>
       </c>
       <c r="L61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="M61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="N61" s="3">
         <v>18700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>29100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>14100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>15000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>14800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3774,8 +4066,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +4134,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4202,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4270,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1235100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1260900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1275200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1272300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1285400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1261300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1223100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1196000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1208500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1120400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1043500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1007600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>908100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>896600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3">
         <v>824000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4368,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4432,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4500,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4568,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4636,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>121900</v>
+      </c>
+      <c r="F72" s="3">
         <v>121400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>115300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>114100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>108700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>104000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>97700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>92400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>87700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>83300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>78500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>74700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>72100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>69500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3">
         <v>62400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4772,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4840,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4908,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>166400</v>
+      </c>
+      <c r="F76" s="3">
         <v>164900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>159700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>159000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>153300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>148300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>142800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>137600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>131200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>129400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>124200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>119300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>114300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>111400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3">
         <v>102400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +5044,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>5200</v>
       </c>
       <c r="L81" s="3">
         <v>5500</v>
       </c>
       <c r="M81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O81" s="3">
         <v>4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>3100</v>
       </c>
       <c r="Q81" s="3">
         <v>4000</v>
       </c>
       <c r="R81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5215,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4881,8 +5279,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5347,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5415,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5483,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5551,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,8 +5619,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5253,8 +5687,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +5717,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5339,8 +5781,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5849,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,8 +5917,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5525,8 +5985,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +6015,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +6079,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +6147,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +6215,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,8 +6283,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5859,8 +6351,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,8 +6419,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5981,6 +6485,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>MBLU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,178 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E8" s="3">
         <v>17900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>14300</v>
       </c>
       <c r="L8" s="3">
         <v>14300</v>
       </c>
       <c r="M8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="N8" s="3">
         <v>14500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9900</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1200</v>
       </c>
       <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E18" s="3">
         <v>13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1583,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,65 +2746,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E41" s="3">
         <v>49200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>143400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>162000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3">
         <v>26700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,65 +2815,68 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E42" s="3">
         <v>18500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>68900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>117200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>52900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>31100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3">
         <v>23600</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2886,11 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3000,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3068,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3079,36 +3184,36 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>3500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3124,8 +3229,8 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3136,65 +3241,68 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3">
         <v>16000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,65 +3312,68 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E49" s="3">
         <v>11200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11600</v>
       </c>
       <c r="I49" s="3">
         <v>11600</v>
       </c>
       <c r="J49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>12300</v>
       </c>
       <c r="Q49" s="3">
         <v>12300</v>
       </c>
       <c r="R49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S49" s="3">
         <v>15500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3">
         <v>12600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,48 +3539,48 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,65 +3667,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1406600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1404900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1425000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1425800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1434900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1431300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1438700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1409500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1365900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1333700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1339700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1249800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1167700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1126900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1022400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1008100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3">
         <v>926400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,65 +3794,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,8 +3863,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3776,15 +3910,15 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>10300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,65 +3934,68 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
         <v>12700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3">
         <v>4700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4005,11 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3936,22 +4076,25 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E61" s="3">
         <v>45100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>28800</v>
       </c>
       <c r="H61" s="3">
         <v>28800</v>
@@ -3960,10 +4103,10 @@
         <v>28800</v>
       </c>
       <c r="J61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K61" s="3">
         <v>18800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>28700</v>
       </c>
       <c r="L61" s="3">
         <v>28700</v>
@@ -3972,29 +4115,29 @@
         <v>28700</v>
       </c>
       <c r="N61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="O61" s="3">
         <v>18700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>14100</v>
       </c>
       <c r="Q61" s="3">
         <v>14100</v>
       </c>
       <c r="R61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="S61" s="3">
         <v>15000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>14800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4004,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,65 +4431,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1233400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1235100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1258600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1260900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1275200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1272300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1285400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1261300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1223100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1196000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1208500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1120400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1043500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1007600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>908100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>896600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3">
         <v>824000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,65 +4813,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E72" s="3">
         <v>125900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>121900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>121400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>115300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>114100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>108700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>104000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>97700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>92400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>87700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>83300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>78500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>69500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3">
         <v>62400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,65 +5097,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E76" s="3">
         <v>169800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>159700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>159000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>153300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>148300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>142800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>137600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>131200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>129400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>124200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>119300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>114300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3">
         <v>102400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5693,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5991,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6357,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6491,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
